--- a/SSG_기록.xlsx
+++ b/SSG_기록.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,61 @@
           <t>SF</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -528,22 +583,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.27</v>
+        <v>0.259</v>
       </c>
       <c r="E2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="G2" t="n">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="H2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
@@ -555,16 +610,49 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P2" t="n">
         <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>20</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>26</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -582,22 +670,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.209</v>
+        <v>0.21</v>
       </c>
       <c r="E3" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F3" t="n">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G3" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -609,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N3" t="n">
         <v>13</v>
@@ -619,6 +707,39 @@
       </c>
       <c r="P3" t="n">
         <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>7</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>27</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.143</v>
       </c>
     </row>
     <row r="4">
@@ -673,6 +794,39 @@
       </c>
       <c r="P4" t="n">
         <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -728,6 +882,39 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>22</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -780,6 +967,39 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -794,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -878,6 +1098,61 @@
           <t>SF</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -894,22 +1169,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.368</v>
+        <v>0.343</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G2" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="n">
         <v>8</v>
@@ -918,18 +1193,51 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>18</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -951,19 +1259,19 @@
         <v>0.341</v>
       </c>
       <c r="E3" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F3" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G3" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H3" t="n">
         <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
@@ -975,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
@@ -985,6 +1293,39 @@
       </c>
       <c r="P3" t="n">
         <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -1002,25 +1343,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.311</v>
+        <v>0.316</v>
       </c>
       <c r="E4" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="G4" t="n">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="H4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -1029,15 +1370,48 @@
         <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>32</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>47</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="AA4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1056,22 +1430,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.302</v>
+        <v>0.293</v>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F5" t="n">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="G5" t="n">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="H5" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I5" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J5" t="n">
         <v>9</v>
@@ -1080,19 +1454,52 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="N5" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>34</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>8</v>
+      </c>
+      <c r="T5" t="n">
+        <v>57</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -1110,22 +1517,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.23</v>
+        <v>0.224</v>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F6" t="n">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="G6" t="n">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="H6" t="n">
         <v>21</v>
       </c>
       <c r="I6" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" t="n">
         <v>13</v>
@@ -1137,7 +1544,7 @@
         <v>11</v>
       </c>
       <c r="M6" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N6" t="n">
         <v>35</v>
@@ -1147,6 +1554,39 @@
       </c>
       <c r="P6" t="n">
         <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>9</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>66</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1164,43 +1604,76 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.197</v>
+        <v>0.206</v>
       </c>
       <c r="E7" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F7" t="n">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="G7" t="n">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="H7" t="n">
+        <v>17</v>
+      </c>
+      <c r="I7" t="n">
+        <v>32</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>39</v>
+      </c>
+      <c r="N7" t="n">
+        <v>16</v>
+      </c>
+      <c r="O7" t="n">
+        <v>12</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
         <v>14</v>
       </c>
-      <c r="I7" t="n">
-        <v>27</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>32</v>
-      </c>
-      <c r="N7" t="n">
-        <v>15</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>19</v>
+      </c>
+      <c r="U7" t="n">
         <v>11</v>
       </c>
-      <c r="P7" t="n">
-        <v>2</v>
+      <c r="V7" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1256,6 +1729,39 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1310,6 +1816,39 @@
       <c r="P9" t="n">
         <v>2</v>
       </c>
+      <c r="Q9" t="n">
+        <v>12</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>26</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1364,6 +1903,39 @@
       <c r="P10" t="n">
         <v>1</v>
       </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>7</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1418,6 +1990,39 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>10</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1437,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -1470,6 +2075,39 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1484,7 +2122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1568,6 +2206,61 @@
           <t>SF</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1584,22 +2277,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.312</v>
+        <v>0.306</v>
       </c>
       <c r="E2" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F2" t="n">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="G2" t="n">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="H2" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I2" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J2" t="n">
         <v>17</v>
@@ -1611,16 +2304,49 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="N2" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O2" t="n">
         <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>29</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>50</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1676,6 +2402,39 @@
       <c r="P3" t="n">
         <v>1</v>
       </c>
+      <c r="Q3" t="n">
+        <v>7</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>12</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1692,43 +2451,76 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.282</v>
+        <v>0.286</v>
       </c>
       <c r="E4" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F4" t="n">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="G4" t="n">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="H4" t="n">
+        <v>37</v>
+      </c>
+      <c r="I4" t="n">
+        <v>74</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M4" t="n">
+        <v>129</v>
+      </c>
+      <c r="N4" t="n">
+        <v>64</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
         <v>34</v>
       </c>
-      <c r="I4" t="n">
-        <v>68</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="R4" t="n">
+        <v>6</v>
+      </c>
+      <c r="S4" t="n">
         <v>9</v>
       </c>
-      <c r="M4" t="n">
-        <v>118</v>
-      </c>
-      <c r="N4" t="n">
-        <v>57</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2</v>
+      <c r="T4" t="n">
+        <v>74</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1746,43 +2538,76 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.257</v>
+        <v>0.269</v>
       </c>
       <c r="E5" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F5" t="n">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="G5" t="n">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="H5" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J5" t="n">
+        <v>13</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>100</v>
+      </c>
+      <c r="N5" t="n">
+        <v>33</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>48</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
         <v>10</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>82</v>
-      </c>
-      <c r="N5" t="n">
-        <v>28</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
+      <c r="T5" t="n">
+        <v>59</v>
+      </c>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -1838,6 +2663,39 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>12</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1854,25 +2712,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.223</v>
+        <v>0.228</v>
       </c>
       <c r="E7" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F7" t="n">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G7" t="n">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="H7" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I7" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1881,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N7" t="n">
         <v>14</v>
@@ -1891,6 +2749,39 @@
       </c>
       <c r="P7" t="n">
         <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>11</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>48</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1908,22 +2799,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.208</v>
+        <v>0.214</v>
       </c>
       <c r="E8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G8" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
@@ -1935,16 +2826,49 @@
         <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>22</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.333</v>
       </c>
     </row>
     <row r="9">
@@ -1962,16 +2886,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.125</v>
+        <v>0.091</v>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
@@ -1992,12 +2916,45 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2054,6 +3011,39 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2106,6 +3096,39 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2120,7 +3143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG26"/>
+  <dimension ref="A1:AQ26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2289,6 +3312,56 @@
           <t>BK</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Wgs</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Wgr</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>GF</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>SVO</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>GO/AO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2296,7 +3369,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>박시후</t>
+          <t>폰트</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2306,20 +3379,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>108</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -2327,76 +3400,104 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K2" t="n">
+        <v>0.6919999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>3</v>
+        <v>405</v>
       </c>
       <c r="Y2" t="n">
+        <v>1556</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="AA2" t="n">
         <v>13</v>
       </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>97</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>117</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.83</v>
       </c>
     </row>
     <row r="3">
@@ -2405,7 +3506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>서동민</t>
+          <t>오원석</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2415,95 +3516,125 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11 2/3</t>
+          <t>85 2/3</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.77</v>
+        <v>3.99</v>
       </c>
       <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="L3" t="n">
+        <v>86</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7</v>
+      </c>
+      <c r="N3" t="n">
+        <v>36</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>39</v>
+      </c>
+      <c r="R3" t="n">
+        <v>38</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>7</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>363</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1427</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="AA3" t="n">
         <v>11</v>
       </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>13</v>
       </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>46</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>187</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
+      <c r="AO3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>88</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.91</v>
       </c>
     </row>
     <row r="4">
@@ -2522,14 +3653,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>85 2/3</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
         <v>8</v>
@@ -2547,7 +3678,7 @@
         <v>0.889</v>
       </c>
       <c r="L4" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
@@ -2556,10 +3687,10 @@
         <v>20</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -2568,7 +3699,7 @@
         <v>13</v>
       </c>
       <c r="S4" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -2583,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="Y4" t="n">
-        <v>1225</v>
+        <v>1285</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.201</v>
+        <v>0.199</v>
       </c>
       <c r="AA4" t="n">
         <v>10</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" t="n">
         <v>5</v>
@@ -2611,6 +3742,36 @@
       </c>
       <c r="AG4" t="n">
         <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>88</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1.09</v>
       </c>
     </row>
     <row r="5">
@@ -2619,7 +3780,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>폰트</t>
+          <t>이태양</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2629,95 +3790,125 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>84</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.94</v>
+        <v>2.57</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L5" t="n">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
         <v>9</v>
       </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.6919999999999999</v>
-      </c>
-      <c r="L5" t="n">
-        <v>62</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
+        <v>19</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>24</v>
+      </c>
+      <c r="R5" t="n">
+        <v>24</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>9</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>339</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1231</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
         <v>7</v>
       </c>
-      <c r="N5" t="n">
-        <v>13</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>95</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>23</v>
-      </c>
-      <c r="R5" t="n">
-        <v>22</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>13</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>379</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1458</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
+      <c r="AO5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>97</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.93</v>
       </c>
     </row>
     <row r="6">
@@ -2726,7 +3917,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>노경은</t>
+          <t>노바</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2736,53 +3927,53 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>63 2/3</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2.63</v>
+        <v>6.5</v>
       </c>
       <c r="F6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="L6" t="n">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
         <v>5</v>
       </c>
-      <c r="G6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>20</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P6" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Q6" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="R6" t="n">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="S6" t="n">
-        <v>1.13</v>
+        <v>1.62</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -2791,40 +3982,70 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>98</v>
+        <v>291</v>
       </c>
       <c r="Y6" t="n">
-        <v>394</v>
+        <v>1046</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.222</v>
+        <v>0.304</v>
       </c>
       <c r="AA6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>86</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>63</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="7">
@@ -2833,7 +4054,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>이태양</t>
+          <t>노경은</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2843,14 +4064,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2.7</v>
+        <v>2.17</v>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
         <v>4</v>
@@ -2862,34 +4083,34 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0.667</v>
       </c>
       <c r="L7" t="n">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q7" t="n">
         <v>7</v>
       </c>
-      <c r="N7" t="n">
-        <v>16</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>42</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>21</v>
-      </c>
       <c r="R7" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="S7" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -2898,40 +4119,70 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>283</v>
+        <v>115</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029</v>
+        <v>466</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.236</v>
+        <v>0.217</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
       <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
         <v>5</v>
       </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
+      <c r="AO7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="8">
@@ -2940,7 +4191,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>서진용</t>
+          <t>전영준</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2950,53 +4201,55 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>35 2/3</t>
+          <t>3 1/3</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.78</v>
+        <v>8.1</v>
       </c>
       <c r="F8" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.75</v>
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L8" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
-        <v>1.09</v>
+        <v>2.1</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -3008,28 +4261,28 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>556</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.213</v>
+        <v>0.308</v>
       </c>
       <c r="AA8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -3039,6 +4292,38 @@
       </c>
       <c r="AG8" t="n">
         <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -3047,7 +4332,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>최민준</t>
+          <t>김건우</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3057,17 +4342,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.48</v>
+        <v>13.5</v>
       </c>
       <c r="F9" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -3076,34 +4361,36 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L9" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>1.26</v>
+        <v>4</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -3115,37 +4402,67 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>504</v>
+        <v>46</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.194</v>
+        <v>0.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="10">
@@ -3154,7 +4471,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>장지훈</t>
+          <t>이건욱</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3164,53 +4481,53 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>29 2/3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.94</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
         <v>4</v>
       </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>34</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6</v>
-      </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -3222,37 +4539,67 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>430</v>
+        <v>70</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.301</v>
+        <v>0.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -3261,7 +4608,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>오원석</t>
+          <t>서동민</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3271,53 +4618,53 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>79 2/3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.95</v>
+        <v>1.2</v>
       </c>
       <c r="F11" t="n">
         <v>14</v>
       </c>
       <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
         <v>5</v>
       </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="L11" t="n">
-        <v>76</v>
-      </c>
-      <c r="M11" t="n">
-        <v>7</v>
-      </c>
-      <c r="N11" t="n">
-        <v>35</v>
-      </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="Q11" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="R11" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.39</v>
+        <v>0.8</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -3326,28 +4673,28 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>337</v>
+        <v>57</v>
       </c>
       <c r="Y11" t="n">
-        <v>1327</v>
+        <v>240</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.254</v>
+        <v>0.137</v>
       </c>
       <c r="AA11" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AB11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -3356,10 +4703,40 @@
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
@@ -3368,7 +4745,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>고효준</t>
+          <t>한두솔</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3378,17 +4755,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>25 2/3</t>
+          <t>5 1/3</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4.21</v>
+        <v>16.88</v>
       </c>
       <c r="F12" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -3397,34 +4774,36 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L12" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>2.63</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -3439,34 +4818,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="Y12" t="n">
-        <v>481</v>
+        <v>107</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.219</v>
+        <v>0.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -3475,7 +4884,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>박민호</t>
+          <t>김주온</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3485,53 +4894,55 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4.8</v>
+        <v>11.25</v>
       </c>
       <c r="F13" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>4</v>
       </c>
-      <c r="K13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>18</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="n">
-        <v>9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>7</v>
-      </c>
       <c r="Q13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S13" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -3543,16 +4954,16 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="n">
-        <v>297</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AA13" t="n">
         <v>1</v>
@@ -3567,13 +4978,43 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
         <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -3582,7 +5023,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>조요한</t>
+          <t>정성곤</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3592,95 +5033,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>16 1/3</t>
+          <t>2 2/3</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.96</v>
+        <v>10.13</v>
       </c>
       <c r="F14" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.667</v>
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L14" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>13</v>
       </c>
-      <c r="Q14" t="n">
-        <v>9</v>
-      </c>
-      <c r="R14" t="n">
-        <v>9</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2</v>
-      </c>
-      <c r="X14" t="n">
-        <v>72</v>
-      </c>
       <c r="Y14" t="n">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.241</v>
+        <v>0.111</v>
       </c>
       <c r="AA14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="15">
@@ -3689,7 +5162,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>김택형</t>
+          <t>김태훈</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3699,32 +5172,34 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>5 1/3</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>10.13</v>
       </c>
       <c r="F15" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
       </c>
-      <c r="K15" t="n">
-        <v>0.333</v>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L15" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
@@ -3733,19 +5208,19 @@
         <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="R15" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="S15" t="n">
-        <v>1.15</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -3757,25 +5232,25 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="Y15" t="n">
-        <v>456</v>
+        <v>118</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.21</v>
+        <v>0.316</v>
       </c>
       <c r="AA15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -3784,10 +5259,40 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="16">
@@ -3796,7 +5301,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>노바</t>
+          <t>윤태현</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3806,20 +5311,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>63 2/3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -3827,32 +5332,34 @@
       <c r="J16" t="n">
         <v>0</v>
       </c>
-      <c r="K16" t="n">
-        <v>0.429</v>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L16" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -3861,40 +5368,70 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>291</v>
+        <v>10</v>
       </c>
       <c r="Y16" t="n">
-        <v>1046</v>
+        <v>53</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.304</v>
+        <v>0.25</v>
       </c>
       <c r="AA16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
         <v>1</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -3903,7 +5440,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>김상수</t>
+          <t>김택형</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3913,97 +5450,125 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7.71</v>
+        <v>4.97</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.333</v>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>16</v>
+      </c>
+      <c r="R17" t="n">
+        <v>16</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>4</v>
       </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>6</v>
-      </c>
-      <c r="R17" t="n">
-        <v>6</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="Y17" t="n">
-        <v>133</v>
+        <v>512</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.292</v>
+        <v>0.248</v>
       </c>
       <c r="AA17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
         <v>1</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="18">
@@ -4012,7 +5577,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>전영준</t>
+          <t>김상수</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4022,14 +5587,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3 1/3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>8.1</v>
+        <v>7.71</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -4038,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -4049,28 +5614,28 @@
         </is>
       </c>
       <c r="L18" t="n">
+        <v>7</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>4</v>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3</v>
-      </c>
       <c r="O18" t="n">
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S18" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -4085,34 +5650,64 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Y18" t="n">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.308</v>
+        <v>0.292</v>
       </c>
       <c r="AA18" t="n">
         <v>2</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
         <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
         <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
@@ -4131,14 +5726,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -4158,7 +5753,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -4170,16 +5765,16 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -4194,34 +5789,64 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO19" t="n">
         <v>4</v>
       </c>
-      <c r="Y19" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
+      <c r="AP19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -4230,7 +5855,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>윤태현</t>
+          <t>조요한</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4240,55 +5865,53 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16 1/3</t>
         </is>
       </c>
       <c r="E20" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F20" t="n">
+        <v>18</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="L20" t="n">
+        <v>14</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
         <v>9</v>
       </c>
-      <c r="F20" t="n">
-        <v>3</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>2</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2</v>
-      </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1.41</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -4300,37 +5923,67 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X20" t="n">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="Y20" t="n">
-        <v>53</v>
+        <v>270</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.25</v>
+        <v>0.241</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG20" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="21">
@@ -4339,7 +5992,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>이건욱</t>
+          <t>박민호</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4349,53 +6002,53 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E21" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>16</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>18</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
         <v>9</v>
       </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>4</v>
-      </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -4407,19 +6060,19 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="Y21" t="n">
-        <v>70</v>
+        <v>297</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" t="n">
         <v>0</v>
@@ -4431,13 +6084,43 @@
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" t="n">
         <v>0</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>1.19</v>
       </c>
     </row>
     <row r="22">
@@ -4446,7 +6129,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>김태훈</t>
+          <t>고효준</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4456,55 +6139,53 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5 1/3</t>
+          <t>25 2/3</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>10.13</v>
+        <v>4.21</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="Q22" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="R22" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>1.36</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -4519,34 +6200,64 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="Y22" t="n">
-        <v>118</v>
+        <v>481</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.316</v>
+        <v>0.219</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1.89</v>
       </c>
     </row>
     <row r="23">
@@ -4555,7 +6266,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>정성곤</t>
+          <t>최민준</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4565,55 +6276,53 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2 2/3</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.13</v>
+        <v>4.09</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="O23" t="n">
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="S23" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -4625,37 +6334,67 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="Y23" t="n">
-        <v>46</v>
+        <v>541</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.111</v>
+        <v>0.207</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>47</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row r="24">
@@ -4664,7 +6403,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>김주온</t>
+          <t>장지훈</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4674,97 +6413,125 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>11.25</v>
+        <v>3.71</v>
       </c>
       <c r="F24" t="n">
+        <v>25</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>38</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>14</v>
+      </c>
+      <c r="R24" t="n">
+        <v>14</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1</v>
+      </c>
+      <c r="X24" t="n">
+        <v>142</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>502</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL24" t="n">
         <v>5</v>
       </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>3</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="n">
-        <v>5</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>46</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1.53</v>
       </c>
     </row>
     <row r="25">
@@ -4773,7 +6540,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>김건우</t>
+          <t>서진용</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4783,97 +6550,125 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>40 1/3</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>13.5</v>
+        <v>2.45</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.8</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="R25" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2</v>
+      </c>
+      <c r="X25" t="n">
+        <v>158</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>625</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>4</v>
       </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y25" t="n">
+      <c r="AK25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO25" t="n">
         <v>46</v>
       </c>
-      <c r="Z25" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
+      <c r="AP25" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row r="26">
@@ -4882,7 +6677,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>한두솔</t>
+          <t>박시후</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4892,14 +6687,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5 1/3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>16.88</v>
+        <v>18</v>
       </c>
       <c r="F26" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -4919,28 +6714,28 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -4955,16 +6750,16 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="Y26" t="n">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB26" t="n">
         <v>0</v>
@@ -4973,16 +6768,48 @@
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
         <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
         <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/SSG_기록.xlsx
+++ b/SSG_기록.xlsx
@@ -583,22 +583,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.254</v>
+        <v>0.261</v>
       </c>
       <c r="E2" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F2" t="n">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G2" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N2" t="n">
         <v>18</v>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
@@ -631,25 +631,25 @@
         <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>0.326</v>
+        <v>0.331</v>
       </c>
       <c r="W2" t="n">
-        <v>0.352</v>
+        <v>0.359</v>
       </c>
       <c r="X2" t="n">
-        <v>0.678</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.278</v>
+        <v>0.27</v>
       </c>
       <c r="AA2" t="n">
         <v>0.25</v>
@@ -670,22 +670,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.203</v>
+        <v>0.201</v>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F3" t="n">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G3" t="n">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -694,22 +694,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -718,25 +718,25 @@
         <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U3" t="n">
         <v>7</v>
       </c>
       <c r="V3" t="n">
-        <v>0.25</v>
+        <v>0.266</v>
       </c>
       <c r="W3" t="n">
-        <v>0.264</v>
+        <v>0.263</v>
       </c>
       <c r="X3" t="n">
-        <v>0.514</v>
+        <v>0.529</v>
       </c>
       <c r="Y3" t="n">
         <v>3</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.176</v>
+        <v>0.211</v>
       </c>
       <c r="AA3" t="n">
         <v>0.143</v>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>최경모</t>
+          <t>전의산</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1172,34 +1172,34 @@
         <v>0.333</v>
       </c>
       <c r="E2" t="n">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G2" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="H2" t="n">
+        <v>17</v>
+      </c>
+      <c r="I2" t="n">
+        <v>28</v>
+      </c>
+      <c r="J2" t="n">
         <v>8</v>
       </c>
-      <c r="I2" t="n">
-        <v>16</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1208,37 +1208,37 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>0.375</v>
+        <v>0.631</v>
       </c>
       <c r="W2" t="n">
-        <v>0.347</v>
+        <v>0.411</v>
       </c>
       <c r="X2" t="n">
-        <v>0.722</v>
+        <v>1.042</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.455</v>
+        <v>0.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>전의산</t>
+          <t>박성한</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1256,73 +1256,73 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.329</v>
+        <v>0.33</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="F3" t="n">
-        <v>84</v>
+        <v>327</v>
       </c>
       <c r="G3" t="n">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="N3" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="R3" t="n">
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>0.658</v>
+        <v>0.41</v>
       </c>
       <c r="W3" t="n">
-        <v>0.393</v>
+        <v>0.403</v>
       </c>
       <c r="X3" t="n">
-        <v>1.051</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.5</v>
+        <v>0.347</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>박성한</t>
+          <t>최경모</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1343,76 +1343,76 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="E4" t="n">
+        <v>60</v>
+      </c>
+      <c r="F4" t="n">
+        <v>56</v>
+      </c>
+      <c r="G4" t="n">
+        <v>55</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>19</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>13</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="W4" t="n">
         <v>0.321</v>
       </c>
-      <c r="E4" t="n">
-        <v>77</v>
-      </c>
-      <c r="F4" t="n">
-        <v>307</v>
-      </c>
-      <c r="G4" t="n">
-        <v>271</v>
-      </c>
-      <c r="H4" t="n">
-        <v>37</v>
-      </c>
-      <c r="I4" t="n">
-        <v>87</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2</v>
-      </c>
-      <c r="M4" t="n">
-        <v>106</v>
-      </c>
-      <c r="N4" t="n">
-        <v>31</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>32</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" t="n">
-        <v>47</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.391</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.393</v>
-      </c>
       <c r="X4" t="n">
-        <v>0.784</v>
+        <v>0.666</v>
       </c>
       <c r="Y4" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.338</v>
+        <v>0.417</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -1430,25 +1430,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.288</v>
+        <v>0.295</v>
       </c>
       <c r="E5" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="G5" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H5" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I5" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>11</v>
       </c>
       <c r="M5" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="N5" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
@@ -1484,19 +1484,19 @@
         <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>0.472</v>
+        <v>0.483</v>
       </c>
       <c r="W5" t="n">
-        <v>0.395</v>
+        <v>0.405</v>
       </c>
       <c r="X5" t="n">
-        <v>0.867</v>
+        <v>0.888</v>
       </c>
       <c r="Y5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.286</v>
+        <v>0.301</v>
       </c>
       <c r="AA5" t="n">
         <v>0.5</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.201</v>
+        <v>0.214</v>
       </c>
       <c r="E7" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F7" t="n">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G7" t="n">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="H7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I7" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J7" t="n">
         <v>5</v>
@@ -1628,23 +1628,23 @@
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N7" t="n">
+        <v>21</v>
+      </c>
+      <c r="O7" t="n">
+        <v>13</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
         <v>16</v>
       </c>
-      <c r="O7" t="n">
-        <v>12</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>14</v>
-      </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
@@ -1652,25 +1652,25 @@
         <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U7" t="n">
         <v>11</v>
       </c>
       <c r="V7" t="n">
-        <v>0.245</v>
+        <v>0.272</v>
       </c>
       <c r="W7" t="n">
-        <v>0.267</v>
+        <v>0.281</v>
       </c>
       <c r="X7" t="n">
-        <v>0.512</v>
+        <v>0.553</v>
       </c>
       <c r="Y7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.227</v>
+        <v>0.24</v>
       </c>
       <c r="AA7" t="n">
         <v>1</v>
@@ -1781,19 +1781,19 @@
         <v>0.161</v>
       </c>
       <c r="E9" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F9" t="n">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G9" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J9" t="n">
         <v>5</v>
@@ -1805,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N9" t="n">
         <v>19</v>
@@ -1817,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R9" t="n">
         <v>1</v>
@@ -1826,25 +1826,25 @@
         <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U9" t="n">
         <v>3</v>
       </c>
       <c r="V9" t="n">
-        <v>0.266</v>
+        <v>0.262</v>
       </c>
       <c r="W9" t="n">
-        <v>0.233</v>
+        <v>0.235</v>
       </c>
       <c r="X9" t="n">
-        <v>0.499</v>
+        <v>0.497</v>
       </c>
       <c r="Y9" t="n">
         <v>4</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.233</v>
+        <v>0.222</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -2042,13 +2042,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -2277,25 +2277,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.311</v>
+        <v>0.313</v>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F2" t="n">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="G2" t="n">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="H2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
@@ -2304,46 +2304,46 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="N2" t="n">
+        <v>34</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
         <v>31</v>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>6</v>
       </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>29</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
       <c r="T2" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U2" t="n">
         <v>3</v>
       </c>
       <c r="V2" t="n">
-        <v>0.434</v>
+        <v>0.439</v>
       </c>
       <c r="W2" t="n">
-        <v>0.376</v>
+        <v>0.38</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.819</v>
       </c>
       <c r="Y2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.387</v>
+        <v>0.379</v>
       </c>
       <c r="AA2" t="n">
         <v>1</v>
@@ -2451,46 +2451,46 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.283</v>
+        <v>0.282</v>
       </c>
       <c r="E4" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="G4" t="n">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="H4" t="n">
+        <v>38</v>
+      </c>
+      <c r="I4" t="n">
+        <v>79</v>
+      </c>
+      <c r="J4" t="n">
+        <v>24</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11</v>
+      </c>
+      <c r="M4" t="n">
+        <v>138</v>
+      </c>
+      <c r="N4" t="n">
+        <v>72</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
         <v>37</v>
-      </c>
-      <c r="I4" t="n">
-        <v>75</v>
-      </c>
-      <c r="J4" t="n">
-        <v>23</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10</v>
-      </c>
-      <c r="M4" t="n">
-        <v>130</v>
-      </c>
-      <c r="N4" t="n">
-        <v>66</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>36</v>
       </c>
       <c r="R4" t="n">
         <v>6</v>
@@ -2499,22 +2499,22 @@
         <v>9</v>
       </c>
       <c r="T4" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>0.491</v>
+        <v>0.493</v>
       </c>
       <c r="W4" t="n">
-        <v>0.385</v>
+        <v>0.381</v>
       </c>
       <c r="X4" t="n">
-        <v>0.876</v>
+        <v>0.874</v>
       </c>
       <c r="Y4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z4" t="n">
         <v>0.333</v>
@@ -2538,70 +2538,70 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.272</v>
+        <v>0.267</v>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F5" t="n">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="G5" t="n">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="H5" t="n">
+        <v>57</v>
+      </c>
+      <c r="I5" t="n">
+        <v>72</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>11</v>
+      </c>
+      <c r="M5" t="n">
+        <v>119</v>
+      </c>
+      <c r="N5" t="n">
+        <v>38</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
         <v>51</v>
       </c>
-      <c r="I5" t="n">
-        <v>69</v>
-      </c>
-      <c r="J5" t="n">
-        <v>13</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M5" t="n">
-        <v>112</v>
-      </c>
-      <c r="N5" t="n">
-        <v>36</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>48</v>
-      </c>
       <c r="R5" t="n">
         <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0.441</v>
       </c>
       <c r="W5" t="n">
-        <v>0.406</v>
+        <v>0.404</v>
       </c>
       <c r="X5" t="n">
-        <v>0.847</v>
+        <v>0.845</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z5" t="n">
         <v>0.34</v>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>오준혁</t>
+          <t>오태곤</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2625,76 +2625,76 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.235</v>
+        <v>0.232</v>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F6" t="n">
-        <v>56</v>
+        <v>225</v>
       </c>
       <c r="G6" t="n">
+        <v>203</v>
+      </c>
+      <c r="H6" t="n">
+        <v>31</v>
+      </c>
+      <c r="I6" t="n">
+        <v>47</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>65</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>13</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="n">
         <v>51</v>
       </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>13</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>12</v>
-      </c>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>0.255</v>
+        <v>0.32</v>
       </c>
       <c r="W6" t="n">
         <v>0.291</v>
       </c>
       <c r="X6" t="n">
-        <v>0.546</v>
+        <v>0.611</v>
       </c>
       <c r="Y6" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>하재훈</t>
+          <t>오준혁</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2712,76 +2712,76 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.234</v>
+        <v>0.226</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F7" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G7" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>13</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>4</v>
       </c>
-      <c r="M7" t="n">
-        <v>31</v>
-      </c>
-      <c r="N7" t="n">
-        <v>10</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
-        <v>0.484</v>
+        <v>0.245</v>
       </c>
       <c r="W7" t="n">
-        <v>0.265</v>
+        <v>0.281</v>
       </c>
       <c r="X7" t="n">
-        <v>0.749</v>
+        <v>0.526</v>
       </c>
       <c r="Y7" t="n">
         <v>2</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.238</v>
+        <v>0.182</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.333</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="8">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>오태곤</t>
+          <t>하재훈</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2799,76 +2799,76 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.226</v>
+        <v>0.218</v>
       </c>
       <c r="E8" t="n">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="F8" t="n">
-        <v>209</v>
+        <v>83</v>
       </c>
       <c r="G8" t="n">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="H8" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="J8" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="N8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.295</v>
+        <v>0.474</v>
       </c>
       <c r="W8" t="n">
-        <v>0.285</v>
+        <v>0.253</v>
       </c>
       <c r="X8" t="n">
-        <v>0.58</v>
+        <v>0.727</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.269</v>
+        <v>0.217</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="9">
@@ -3143,7 +3143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ26"/>
+  <dimension ref="A1:AQ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3379,17 +3379,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>116</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.17</v>
+        <v>2.02</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -3401,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.714</v>
       </c>
       <c r="L2" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M2" t="n">
         <v>8</v>
@@ -3416,7 +3416,7 @@
         <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q2" t="n">
         <v>28</v>
@@ -3425,7 +3425,7 @@
         <v>26</v>
       </c>
       <c r="S2" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -3434,22 +3434,22 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="Y2" t="n">
-        <v>1556</v>
+        <v>1660</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.177</v>
+        <v>0.175</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB2" t="n">
         <v>2</v>
@@ -3464,16 +3464,16 @@
         <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ2" t="n">
         <v>0</v>
@@ -3491,13 +3491,13 @@
         <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AP2" t="n">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="3">
@@ -3516,14 +3516,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91 2/3</t>
+          <t>92</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.03</v>
+        <v>4.01</v>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -3541,7 +3541,7 @@
         <v>0.556</v>
       </c>
       <c r="L3" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="n">
         <v>8</v>
@@ -3577,13 +3577,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Y3" t="n">
-        <v>1532</v>
+        <v>1543</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.261</v>
+        <v>0.262</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>5</v>
@@ -3628,13 +3628,13 @@
         <v>13</v>
       </c>
       <c r="AO3" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AP3" t="n">
         <v>96</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4">
@@ -3653,17 +3653,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85 2/3</t>
+          <t>92 2/3</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.37</v>
+        <v>1.65</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -3675,31 +3675,31 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.889</v>
+        <v>0.9</v>
       </c>
       <c r="L4" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O4" t="n">
         <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q4" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R4" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S4" t="n">
-        <v>0.96</v>
+        <v>1.05</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="Y4" t="n">
-        <v>1285</v>
+        <v>1385</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.199</v>
+        <v>0.222</v>
       </c>
       <c r="AA4" t="n">
         <v>10</v>
@@ -3744,10 +3744,10 @@
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
@@ -3762,16 +3762,16 @@
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AO4" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AP4" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="5">
@@ -3790,14 +3790,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>89</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.57</v>
+        <v>2.93</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
         <v>6</v>
@@ -3815,28 +3815,28 @@
         <v>0.75</v>
       </c>
       <c r="L5" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N5" t="n">
         <v>19</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q5" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="R5" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S5" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -3851,16 +3851,16 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="Y5" t="n">
-        <v>1231</v>
+        <v>1327</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.232</v>
+        <v>0.248</v>
       </c>
       <c r="AA5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
         <v>5</v>
@@ -3899,16 +3899,16 @@
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AP5" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="6">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>서동민</t>
+          <t>문승원</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4618,77 +4618,79 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1 1/3</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>4</v>
       </c>
-      <c r="K11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>7</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>6</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>60</v>
-      </c>
       <c r="Y11" t="n">
-        <v>249</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -4703,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -4715,13 +4717,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
@@ -4730,13 +4732,13 @@
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -5579,7 +5581,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>김택형</t>
+          <t>조요한</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5589,53 +5591,53 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>16 1/3</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.97</v>
+        <v>4.96</v>
       </c>
       <c r="F18" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>0.333</v>
+        <v>0.667</v>
       </c>
       <c r="L18" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P18" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="Q18" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="R18" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="S18" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -5647,67 +5649,67 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
+        <v>2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>72</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>270</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK18" t="n">
         <v>4</v>
       </c>
-      <c r="X18" t="n">
-        <v>128</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>512</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK18" t="n">
+      <c r="AL18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP18" t="n">
         <v>17</v>
       </c>
-      <c r="AL18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>1.17</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="19">
@@ -5855,7 +5857,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>조요한</t>
+          <t>서동민</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5865,17 +5867,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>16 1/3</t>
+          <t>17 1/3</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.96</v>
+        <v>1.04</v>
       </c>
       <c r="F20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -5887,31 +5889,31 @@
         <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>0.667</v>
+        <v>0.5</v>
       </c>
       <c r="L20" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R20" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.41</v>
+        <v>0.92</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -5923,34 +5925,34 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Y20" t="n">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.241</v>
+        <v>0.136</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
@@ -5962,28 +5964,28 @@
         <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AP20" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.88</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="21">
@@ -6129,7 +6131,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>최민준</t>
+          <t>김택형</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -6139,44 +6141,44 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4.5</v>
+        <v>4.64</v>
       </c>
       <c r="F22" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="L22" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="Q22" t="n">
         <v>17</v>
@@ -6185,7 +6187,7 @@
         <v>17</v>
       </c>
       <c r="S22" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -6197,34 +6199,34 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X22" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Y22" t="n">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.208</v>
+        <v>0.23</v>
       </c>
       <c r="AA22" t="n">
         <v>3</v>
       </c>
       <c r="AB22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
@@ -6236,28 +6238,28 @@
         <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK22" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO22" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AP22" t="n">
         <v>26</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.85</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="23">
@@ -6413,14 +6415,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38 1/3</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.6</v>
+        <v>3.99</v>
       </c>
       <c r="F24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -6432,16 +6434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="n">
         <v>6</v>
@@ -6450,16 +6452,16 @@
         <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q24" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R24" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S24" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -6471,16 +6473,16 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="Y24" t="n">
-        <v>516</v>
+        <v>560</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.291</v>
+        <v>0.29</v>
       </c>
       <c r="AA24" t="n">
         <v>6</v>
@@ -6489,16 +6491,16 @@
         <v>1</v>
       </c>
       <c r="AC24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>1</v>
       </c>
       <c r="AF24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG24" t="n">
         <v>0</v>
@@ -6516,7 +6518,7 @@
         <v>8</v>
       </c>
       <c r="AL24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -6525,13 +6527,13 @@
         <v>3</v>
       </c>
       <c r="AO24" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AP24" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="25">
@@ -6540,7 +6542,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>서진용</t>
+          <t>최민준</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -6550,125 +6552,125 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>41 1/3</t>
+          <t>39 1/3</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2.4</v>
+        <v>3.89</v>
       </c>
       <c r="F25" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G25" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L25" t="n">
+        <v>27</v>
+      </c>
+      <c r="M25" t="n">
+        <v>7</v>
+      </c>
+      <c r="N25" t="n">
+        <v>24</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>17</v>
+      </c>
+      <c r="R25" t="n">
+        <v>17</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2</v>
+      </c>
+      <c r="X25" t="n">
+        <v>166</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>636</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK25" t="n">
         <v>5</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>11</v>
-      </c>
-      <c r="J25" t="n">
-        <v>11</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="L25" t="n">
-        <v>30</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="n">
-        <v>16</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
+      <c r="AL25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP25" t="n">
         <v>32</v>
       </c>
-      <c r="Q25" t="n">
-        <v>12</v>
-      </c>
-      <c r="R25" t="n">
-        <v>11</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>2</v>
-      </c>
-      <c r="X25" t="n">
-        <v>164</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>641</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.208</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>46</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>37</v>
-      </c>
       <c r="AQ25" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="26">
@@ -6677,136 +6679,273 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>서진용</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>투수</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>42 2/3</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F26" t="n">
+        <v>41</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>12</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="L26" t="n">
+        <v>34</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>17</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>15</v>
+      </c>
+      <c r="R26" t="n">
+        <v>14</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2</v>
+      </c>
+      <c r="X26" t="n">
+        <v>173</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>678</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>46</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>39</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>박시후</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>투수</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="E27" t="n">
         <v>18</v>
       </c>
-      <c r="F26" t="n">
-        <v>2</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr">
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>3</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
+      <c r="L27" t="n">
+        <v>3</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
         <v>6</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Y27" t="n">
         <v>22</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="Z27" t="n">
         <v>0.5</v>
       </c>
-      <c r="AA26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ26" t="inlineStr">
+      <c r="AA27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="inlineStr">
         <is>
           <t>-</t>
         </is>
